--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scunningham/Documents/Teaching 2019_20/WDD1920_6G5Z2107/Unit Information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE47C6F-720A-7344-963B-8A7F7DD3FE22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51490139-5C11-4BA7-95BC-D35869AF6477}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28040" windowHeight="16640" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2CWK50MarkSheet" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2CWK50MarkSheet'!$B$1:$T$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -738,7 +744,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1060,35 +1117,35 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="1.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.375" style="2" customWidth="1"/>
     <col min="20" max="20" width="7.5" style="67" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="2"/>
+    <col min="21" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="95" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="95" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>70</v>
       </c>
@@ -1112,7 +1169,7 @@
       <c r="S1" s="102"/>
       <c r="T1" s="103"/>
     </row>
-    <row r="2" spans="1:20" s="107" customFormat="1" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="107" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="104"/>
       <c r="B2" s="104"/>
       <c r="C2" s="104"/>
@@ -1136,10 +1193,10 @@
       </c>
       <c r="T2" s="106">
         <f>SUM(C34,G34,K34,O34,S34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1228,7 @@
       <c r="S3" s="92"/>
       <c r="T3" s="94"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -1223,12 +1280,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="96"/>
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
       <c r="D5" s="59">
         <v>1</v>
       </c>
@@ -1265,12 +1324,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="96">
+        <v>1</v>
+      </c>
       <c r="D6" s="59">
         <v>1</v>
       </c>
@@ -1307,12 +1368,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="96">
+        <v>1</v>
+      </c>
       <c r="D7" s="59">
         <v>1</v>
       </c>
@@ -1349,12 +1412,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="96">
+        <v>1</v>
+      </c>
       <c r="D8" s="59">
         <v>1</v>
       </c>
@@ -1395,12 +1460,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="96">
+        <v>1</v>
+      </c>
       <c r="D9" s="59">
         <v>1</v>
       </c>
@@ -1435,12 +1502,14 @@
       <c r="S9" s="12"/>
       <c r="T9" s="77"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="96">
+        <v>1</v>
+      </c>
       <c r="D10" s="59">
         <v>1</v>
       </c>
@@ -1477,12 +1546,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="96">
+        <v>1</v>
+      </c>
       <c r="D11" s="59">
         <v>1</v>
       </c>
@@ -1517,12 +1588,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="96">
+        <v>1</v>
+      </c>
       <c r="D12" s="59">
         <v>1</v>
       </c>
@@ -1559,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="42" t="s">
         <v>14</v>
@@ -1601,12 +1674,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18">
         <f>SUM(C5:C13)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="60">
         <f>SUM(D5:D13)</f>
@@ -1647,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>9</v>
       </c>
@@ -1687,12 +1760,14 @@
       <c r="S15" s="19"/>
       <c r="T15" s="76"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="96">
+        <v>1</v>
+      </c>
       <c r="D16" s="59">
         <v>1</v>
       </c>
@@ -1727,12 +1802,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="96">
+        <v>1</v>
+      </c>
       <c r="D17" s="59">
         <v>1</v>
       </c>
@@ -1763,12 +1840,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="96">
+        <v>1</v>
+      </c>
       <c r="D18" s="59">
         <v>1</v>
       </c>
@@ -1795,12 +1874,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="96">
+        <v>1</v>
+      </c>
       <c r="D19" s="59">
         <v>1</v>
       </c>
@@ -1831,12 +1912,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="96">
+        <v>1</v>
+      </c>
       <c r="D20" s="59">
         <v>1</v>
       </c>
@@ -1861,12 +1944,12 @@
       <c r="S20" s="19"/>
       <c r="T20" s="77"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18">
         <f>SUM(C16:C20)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="60">
         <f>SUM(D16:D20)</f>
@@ -1893,7 +1976,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="77"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>10</v>
       </c>
@@ -1921,12 +2004,14 @@
       <c r="S22" s="11"/>
       <c r="T22" s="77"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="44"/>
       <c r="B23" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="96">
+        <v>1</v>
+      </c>
       <c r="D23" s="59">
         <v>1</v>
       </c>
@@ -1951,12 +2036,14 @@
       <c r="S23" s="19"/>
       <c r="T23" s="77"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="96">
+        <v>1</v>
+      </c>
       <c r="D24" s="59">
         <v>1</v>
       </c>
@@ -1983,12 +2070,14 @@
       <c r="S24" s="19"/>
       <c r="T24" s="77"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="44"/>
       <c r="B25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="96"/>
+      <c r="C25" s="96">
+        <v>1</v>
+      </c>
       <c r="D25" s="59">
         <v>1</v>
       </c>
@@ -2011,12 +2100,14 @@
       <c r="S25" s="19"/>
       <c r="T25" s="77"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
       <c r="B26" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="96"/>
+      <c r="C26" s="96">
+        <v>1</v>
+      </c>
       <c r="D26" s="59">
         <v>1</v>
       </c>
@@ -2041,12 +2132,14 @@
       <c r="S26" s="19"/>
       <c r="T26" s="77"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="96"/>
+      <c r="C27" s="96">
+        <v>1</v>
+      </c>
       <c r="D27" s="59">
         <v>1</v>
       </c>
@@ -2071,12 +2164,12 @@
       <c r="S27" s="19"/>
       <c r="T27" s="77"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18">
         <f>SUM(C23:C27)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="60">
         <f>SUM(D23:D27)</f>
@@ -2103,7 +2196,7 @@
       <c r="S28" s="12"/>
       <c r="T28" s="76"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2224,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="77"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="42" t="s">
         <v>12</v>
@@ -2163,7 +2256,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="77"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="44"/>
       <c r="B31" s="42" t="s">
         <v>13</v>
@@ -2189,7 +2282,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="77"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="44"/>
       <c r="B32" s="42" t="s">
         <v>17</v>
@@ -2215,7 +2308,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="77"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="44"/>
       <c r="B33" s="39"/>
       <c r="C33" s="40">
@@ -2243,14 +2336,14 @@
       <c r="S33" s="19"/>
       <c r="T33" s="76"/>
     </row>
-    <row r="34" spans="1:20" s="28" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="30">
         <f>SUM(C14,C21,C28,C33)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D34" s="62">
         <v>25</v>
@@ -2301,7 +2394,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0iIj9VwpOsTZO3P0gZeCYYDzbzz80a8op4REUklDxReJebCKOw9x/rzMmopkbf4tLG4yBTQjDZ1KZK3xvskqpg==" saltValue="5lPeda14hCQ5ENAac9Ya7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C5:C14 G5:G10 K5:K8 O5:O9 S5:S8 K10:K16 O11:O15 S10:S14 S16:S19 S34 O34 K34 G34 G26:G30 G19:G24 G12:G17 C30:C34 C23:C28 C16:C21">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12 C16:C20 C23:C27 C30 G5:G9 G12:G16 G19:G23 G29 K10:K14 O5:O6 O13 S5:S7 S10:S13 S16:S18" xr:uid="{D22A219D-D45D-8C46-B7A2-96E1D4C10181}">
       <formula1>0</formula1>

--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51490139-5C11-4BA7-95BC-D35869AF6477}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCF41F-144F-4F47-8F08-810501E4F18A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
@@ -744,37 +744,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2395,10 +2365,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C14 G5:G10 K5:K8 O5:O9 S5:S8 K10:K16 O11:O15 S10:S14 S16:S19 S34 O34 K34 G34 G26:G30 G19:G24 G12:G17 C30:C34 C23:C28 C16:C21">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BCF41F-144F-4F47-8F08-810501E4F18A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7424A-5593-436F-A180-A58D2B34ADD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2CWK50MarkSheet" sheetId="2" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B7424A-5593-436F-A180-A58D2B34ADD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F6A79-8B5F-4786-9643-2FB30DF882A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2CWK50MarkSheet" sheetId="2" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F6A79-8B5F-4786-9643-2FB30DF882A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843BDB1-A4C2-4727-834F-2D1B9D9FC465}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="T2" s="106">
         <f>SUM(C34,G34,K34,O34,S34)</f>
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,9 @@
       <c r="F5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="96"/>
+      <c r="G5" s="96">
+        <v>1</v>
+      </c>
       <c r="H5" s="64">
         <v>1</v>
       </c>
@@ -1273,7 +1275,9 @@
       <c r="J5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="96"/>
+      <c r="K5" s="96">
+        <v>2</v>
+      </c>
       <c r="L5" s="69">
         <v>2</v>
       </c>
@@ -1281,7 +1285,9 @@
       <c r="N5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="96"/>
+      <c r="O5" s="96">
+        <v>1</v>
+      </c>
       <c r="P5" s="73">
         <v>1</v>
       </c>
@@ -1309,7 +1315,9 @@
       <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="96">
+        <v>1</v>
+      </c>
       <c r="H6" s="64">
         <v>1</v>
       </c>
@@ -1317,7 +1325,9 @@
       <c r="J6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="96"/>
+      <c r="K6" s="96">
+        <v>3</v>
+      </c>
       <c r="L6" s="69">
         <v>3</v>
       </c>
@@ -1325,7 +1335,9 @@
       <c r="N6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="96"/>
+      <c r="O6" s="96">
+        <v>1</v>
+      </c>
       <c r="P6" s="73">
         <v>1</v>
       </c>
@@ -1353,7 +1365,9 @@
       <c r="F7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="96">
+        <v>1</v>
+      </c>
       <c r="H7" s="64">
         <v>1</v>
       </c>
@@ -1361,7 +1375,9 @@
       <c r="J7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="96"/>
+      <c r="K7" s="96">
+        <v>5</v>
+      </c>
       <c r="L7" s="69">
         <v>5</v>
       </c>
@@ -1369,7 +1385,9 @@
       <c r="N7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="96"/>
+      <c r="O7" s="96">
+        <v>4</v>
+      </c>
       <c r="P7" s="73">
         <v>4</v>
       </c>
@@ -1397,7 +1415,9 @@
       <c r="F8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="96"/>
+      <c r="G8" s="96">
+        <v>1</v>
+      </c>
       <c r="H8" s="64">
         <v>1</v>
       </c>
@@ -1405,7 +1425,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="4">
         <f>SUM(K5:K7)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" s="70">
         <f>SUM(L5:L7)</f>
@@ -1415,7 +1435,9 @@
       <c r="N8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="99"/>
+      <c r="O8" s="99">
+        <v>4</v>
+      </c>
       <c r="P8" s="73">
         <v>4</v>
       </c>
@@ -1445,7 +1467,9 @@
       <c r="F9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="96">
+        <v>1</v>
+      </c>
       <c r="H9" s="64">
         <v>1</v>
       </c>
@@ -1459,7 +1483,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="10">
         <f>SUM(O5:O8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="74">
         <f>SUM(P5:P8)</f>
@@ -1487,7 +1511,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="14">
         <f>SUM(G5:G9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="65">
         <f>SUM(H5:H9)</f>
@@ -1497,7 +1521,9 @@
       <c r="J10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="96"/>
+      <c r="K10" s="96">
+        <v>1</v>
+      </c>
       <c r="L10" s="69">
         <v>1</v>
       </c>
@@ -1511,7 +1537,9 @@
       <c r="R10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="98"/>
+      <c r="S10" s="98">
+        <v>1</v>
+      </c>
       <c r="T10" s="77">
         <v>1</v>
       </c>
@@ -1537,7 +1565,9 @@
       <c r="J11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="96"/>
+      <c r="K11" s="96">
+        <v>1</v>
+      </c>
       <c r="L11" s="69">
         <v>1</v>
       </c>
@@ -1545,7 +1575,9 @@
       <c r="N11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="96"/>
+      <c r="O11" s="96">
+        <v>2</v>
+      </c>
       <c r="P11" s="73">
         <v>2</v>
       </c>
@@ -1553,7 +1585,9 @@
       <c r="R11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="96"/>
+      <c r="S11" s="96">
+        <v>1</v>
+      </c>
       <c r="T11" s="77">
         <v>1</v>
       </c>
@@ -1573,7 +1607,9 @@
       <c r="F12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="96"/>
+      <c r="G12" s="96">
+        <v>1</v>
+      </c>
       <c r="H12" s="64">
         <v>1</v>
       </c>
@@ -1581,7 +1617,9 @@
       <c r="J12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="96"/>
+      <c r="K12" s="96">
+        <v>1</v>
+      </c>
       <c r="L12" s="69">
         <v>1</v>
       </c>
@@ -1589,7 +1627,9 @@
       <c r="N12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="96"/>
+      <c r="O12" s="96">
+        <v>2</v>
+      </c>
       <c r="P12" s="73">
         <v>2</v>
       </c>
@@ -1597,7 +1637,9 @@
       <c r="R12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S12" s="96"/>
+      <c r="S12" s="96">
+        <v>1</v>
+      </c>
       <c r="T12" s="77">
         <v>1</v>
       </c>
@@ -1607,7 +1649,9 @@
       <c r="B13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="96">
+        <v>2</v>
+      </c>
       <c r="D13" s="59">
         <v>2</v>
       </c>
@@ -1615,7 +1659,9 @@
       <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="96">
+        <v>1</v>
+      </c>
       <c r="H13" s="64">
         <v>1</v>
       </c>
@@ -1623,7 +1669,9 @@
       <c r="J13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="98"/>
+      <c r="K13" s="98">
+        <v>1</v>
+      </c>
       <c r="L13" s="69">
         <v>1</v>
       </c>
@@ -1631,7 +1679,9 @@
       <c r="N13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="98"/>
+      <c r="O13" s="98">
+        <v>1</v>
+      </c>
       <c r="P13" s="73">
         <v>1</v>
       </c>
@@ -1639,7 +1689,9 @@
       <c r="R13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="96"/>
+      <c r="S13" s="96">
+        <v>1</v>
+      </c>
       <c r="T13" s="77">
         <v>1</v>
       </c>
@@ -1649,7 +1701,7 @@
       <c r="B14" s="17"/>
       <c r="C14" s="18">
         <f>SUM(C5:C13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="60">
         <f>SUM(D5:D13)</f>
@@ -1659,7 +1711,9 @@
       <c r="F14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="96"/>
+      <c r="G14" s="96">
+        <v>1</v>
+      </c>
       <c r="H14" s="64">
         <v>1</v>
       </c>
@@ -1667,7 +1721,9 @@
       <c r="J14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="98"/>
+      <c r="K14" s="98">
+        <v>1</v>
+      </c>
       <c r="L14" s="69">
         <v>1</v>
       </c>
@@ -1683,7 +1739,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="7">
         <f>SUM(S10:S13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="78">
         <f>SUM(T10:T13)</f>
@@ -1701,7 +1757,9 @@
       <c r="F15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="96"/>
+      <c r="G15" s="96">
+        <v>1</v>
+      </c>
       <c r="H15" s="64">
         <v>1</v>
       </c>
@@ -1709,7 +1767,9 @@
       <c r="J15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="98"/>
+      <c r="K15" s="98">
+        <v>5</v>
+      </c>
       <c r="L15" s="69">
         <v>5</v>
       </c>
@@ -1717,7 +1777,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="10">
         <f>SUM(O11:O14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P15" s="74">
         <f>SUM(P10:P14)</f>
@@ -1745,7 +1805,9 @@
       <c r="F16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="96"/>
+      <c r="G16" s="96">
+        <v>1</v>
+      </c>
       <c r="H16" s="64">
         <v>1</v>
       </c>
@@ -1753,7 +1815,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="4">
         <f>SUM(K10:K15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L16" s="70">
         <f>SUM(L10:L15)</f>
@@ -1767,7 +1829,9 @@
       <c r="R16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="99"/>
+      <c r="S16" s="99">
+        <v>1</v>
+      </c>
       <c r="T16" s="77">
         <v>1</v>
       </c>
@@ -1787,7 +1851,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="14">
         <f>SUM(G12:G16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="65">
         <f>SUM(H12:H16)</f>
@@ -1805,7 +1869,9 @@
       <c r="R17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="96"/>
+      <c r="S17" s="96">
+        <v>1</v>
+      </c>
       <c r="T17" s="77">
         <v>1</v>
       </c>
@@ -1839,7 +1905,9 @@
       <c r="R18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S18" s="96"/>
+      <c r="S18" s="96">
+        <v>1</v>
+      </c>
       <c r="T18" s="77">
         <v>1</v>
       </c>
@@ -1859,7 +1927,9 @@
       <c r="F19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="96"/>
+      <c r="G19" s="96">
+        <v>1</v>
+      </c>
       <c r="H19" s="64">
         <v>1</v>
       </c>
@@ -1875,7 +1945,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="7">
         <f>SUM(S16:S18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="78">
         <f>SUM(T15:T18)</f>
@@ -1897,7 +1967,9 @@
       <c r="F20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="96"/>
+      <c r="G20" s="96">
+        <v>1</v>
+      </c>
       <c r="H20" s="64">
         <v>1</v>
       </c>
@@ -1929,7 +2001,9 @@
       <c r="F21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="96"/>
+      <c r="G21" s="96">
+        <v>1</v>
+      </c>
       <c r="H21" s="64">
         <v>1</v>
       </c>
@@ -1957,7 +2031,9 @@
       <c r="F22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="96"/>
+      <c r="G22" s="96">
+        <v>1</v>
+      </c>
       <c r="H22" s="64">
         <v>1</v>
       </c>
@@ -1989,7 +2065,9 @@
       <c r="F23" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="96"/>
+      <c r="G23" s="96">
+        <v>1</v>
+      </c>
       <c r="H23" s="64">
         <v>1</v>
       </c>
@@ -2021,7 +2099,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="14">
         <f>SUM(G19:G23)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="65">
         <f>SUM(H19:H23)</f>
@@ -2199,7 +2277,9 @@
       <c r="B30" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="96">
+        <v>1</v>
+      </c>
       <c r="D30" s="59">
         <v>1</v>
       </c>
@@ -2231,7 +2311,9 @@
       <c r="B31" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="96"/>
+      <c r="C31" s="96">
+        <v>2</v>
+      </c>
       <c r="D31" s="59">
         <v>2</v>
       </c>
@@ -2257,7 +2339,9 @@
       <c r="B32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="96">
+        <v>2</v>
+      </c>
       <c r="D32" s="59">
         <v>2</v>
       </c>
@@ -2283,7 +2367,7 @@
       <c r="B33" s="39"/>
       <c r="C33" s="40">
         <f>SUM(C30:C32)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="61">
         <f>SUM(D30:D32)</f>
@@ -2313,7 +2397,7 @@
       </c>
       <c r="C34" s="30">
         <f>SUM(C14,C21,C28,C33)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34" s="62">
         <v>25</v>
@@ -2324,7 +2408,7 @@
       </c>
       <c r="G34" s="32">
         <f>SUM(G10,G17,G24,G30)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" s="66">
         <v>25</v>
@@ -2335,7 +2419,7 @@
       </c>
       <c r="K34" s="34">
         <f>SUM(K8,K16)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L34" s="71">
         <v>20</v>
@@ -2346,7 +2430,7 @@
       </c>
       <c r="O34" s="36">
         <f>SUM(O9,O15)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P34" s="75">
         <v>20</v>
@@ -2357,7 +2441,7 @@
       </c>
       <c r="S34" s="38">
         <f>SUM(S8,S14,S19)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T34" s="79">
         <v>10</v>

--- a/2CWK50_mark_sheet.xlsx
+++ b/2CWK50_mark_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\surveyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843BDB1-A4C2-4727-834F-2D1B9D9FC465}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E6D6AD-D9F8-4EA6-9EDE-9AAE0D7534D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
+    <workbookView xWindow="2445" yWindow="2115" windowWidth="25080" windowHeight="11385" xr2:uid="{52EE32D8-2C83-7943-AA24-796411A079B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2CWK50MarkSheet" sheetId="2" r:id="rId1"/>
